--- a/Dokumentation/Databastabeller.xlsx
+++ b/Dokumentation/Databastabeller.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21512"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\karls\Webbutveckling\4. Agil utveckling\Grupprojekt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDB87B63-BDDC-42C5-A8FD-0534BAC91B6C}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A0BCA727-3695-454F-BACA-A0882ECFAEF7}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2496" yWindow="1932" windowWidth="17280" windowHeight="8964" xr2:uid="{32C4E585-90D2-44D5-90E6-95506C7A1562}"/>
+    <workbookView xWindow="2496" yWindow="1932" windowWidth="17280" windowHeight="8964" activeTab="1" xr2:uid="{32C4E585-90D2-44D5-90E6-95506C7A1562}"/>
   </bookViews>
   <sheets>
     <sheet name="Books" sheetId="1" r:id="rId1"/>
-    <sheet name="User" sheetId="2" r:id="rId2"/>
+    <sheet name="Loans" sheetId="3" r:id="rId2"/>
+    <sheet name="User" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -32,9 +33,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
-  <si>
-    <t>Title</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+  <si>
+    <t>Title #</t>
+  </si>
+  <si>
+    <t>Image</t>
   </si>
   <si>
     <t>Author</t>
@@ -49,16 +53,28 @@
     <t>Language</t>
   </si>
   <si>
+    <t>Amount</t>
+  </si>
+  <si>
+    <t>Title #*</t>
+  </si>
+  <si>
+    <t>Available (true/false)</t>
+  </si>
+  <si>
     <t>Return date</t>
   </si>
   <si>
-    <t>User name</t>
+    <t>UserName #*</t>
+  </si>
+  <si>
+    <t>User name #</t>
   </si>
   <si>
     <t>Password</t>
   </si>
   <si>
-    <t>First name</t>
+    <t>First name #</t>
   </si>
   <si>
     <t>Last name</t>
@@ -68,19 +84,13 @@
   </si>
   <si>
     <t>Phone number</t>
-  </si>
-  <si>
-    <t>Image</t>
-  </si>
-  <si>
-    <t>Available (true/false)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -129,7 +139,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-tema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -425,38 +435,35 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3C02398-1EB6-432E-8AE9-80F19728BB76}">
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:G1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0" xr3:uid="{490A4168-D6B6-5D1C-B563-637D00FBEA93}">
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.45"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -465,33 +472,60 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{260911AB-646E-4648-98FE-47D9808F1934}">
+  <dimension ref="A1:D1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0" xr3:uid="{F6712102-025F-5208-8C67-11B03D55603E}">
+      <selection activeCell="D1" sqref="D1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2677DFE8-E431-4E2F-A5FA-62A9533A9A7B}">
   <dimension ref="A1:F1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
-    </sheetView>
+    <sheetView workbookViewId="0" xr3:uid="{C065D021-2E71-5080-8402-4B68FDA5208A}"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.45"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D1" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="E1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
